--- a/REVER_DailyTracker_20200506.xlsx
+++ b/REVER_DailyTracker_20200506.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC1D931-0E76-41C2-A274-045522CFC26D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C47BBDF-089F-4C45-AF26-83E1240B1CE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="768" windowWidth="23040" windowHeight="10884" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,17 +24,23 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="19">
   <si>
     <t>Task</t>
   </si>
@@ -81,53 +87,21 @@
     <t>Loginpage (Frontend)</t>
   </si>
   <si>
-    <t>Tables are created at RPA Sale database, whereas relationship is penidng, after discussing with Mr Bharathi san, it will be over,
-if any changes or modification can be done.</t>
-  </si>
-  <si>
-    <t>29/04/2020</t>
-  </si>
-  <si>
-    <t>Rever B2C</t>
-  </si>
-  <si>
-    <t>IF full flow with technician tracking integration</t>
-  </si>
-  <si>
-    <t>APK sent.</t>
-  </si>
-  <si>
-    <t>MujiStore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
-  </si>
-  <si>
-    <t>Hayaai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Website design- Business page </t>
-  </si>
-  <si>
-    <t>Website design- Contact page &amp; Business page popup</t>
-  </si>
-  <si>
-    <t>DOTNET APP</t>
-  </si>
-  <si>
-    <t>Video</t>
-  </si>
-  <si>
-    <t>Presentation</t>
-  </si>
-  <si>
-    <t>OBIC Macro</t>
-  </si>
-  <si>
-    <t>By macros created csv file with validations,error msgs,overwriting file</t>
-  </si>
-  <si>
-    <t>Client name is not matched,asked for query with Suma San</t>
+    <t xml:space="preserve">1. CRM Table is created for the News Letter type
+2. email id are fetched from the database based on condition of either existisng customer or general customer type and displayed to the textarea,
+3,some onchange events to be implemented to select customer type and based on that email id will be fetched from the databas and placed in the textarea is in progress
+</t>
+  </si>
+  <si>
+    <t>4. Purely  Excel Macro has been developed to create a header.csv file for the japanese language
+5. replaceall macro has been developed To remove emspace characters in japanese text</t>
+  </si>
+  <si>
+    <t>Excel macros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Userform designed and  development etc
+</t>
   </si>
 </sst>
 </file>
@@ -137,7 +111,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,22 +132,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -252,13 +210,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -294,20 +249,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{91AE6805-01E8-42B9-BB81-A87FD24491E0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -618,25 +568,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5FA210-E74C-4956-984B-F79AD1DC1D90}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
     <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -657,7 +608,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.95" customHeight="1">
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -680,7 +631,130 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D97F208-7046-4CD3-9A69-1B907A35455F}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -689,46 +763,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -740,26 +814,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A209DB9-CDA9-4C50-85C1-A0ADA7185189}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -782,30 +857,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -814,181 +875,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.6">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.6">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>43951</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1001,25 +927,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B046864B-E8B4-4B7E-A91C-A0C80AD7F78D}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1042,7 +969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1051,7 +978,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1060,46 +987,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1112,25 +1039,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C523E988-B9D6-4503-8511-E851FE3ED345}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1153,28 +1081,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="6">
-        <v>43987</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1183,46 +1099,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1235,25 +1151,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32E0A3B-4CCA-47FE-89FF-779CF7651DEC}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1276,7 +1193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1297,87 +1214,55 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="22">
-        <v>43955</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>5</v>
-      </c>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="22">
-        <v>43956</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1390,25 +1275,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E19C8D-58A2-48BE-81ED-4B005621A3AA}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1431,7 +1317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1440,7 +1326,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1449,46 +1335,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1501,25 +1387,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5621F7FF-E06F-434B-89A6-3866EAA4F4E8}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1542,131 +1429,66 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43951</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="F2" s="3" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="22">
-        <v>43955</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F3" s="14" t="s">
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="22">
-        <v>43955</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="22">
-        <v>43956</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="20" spans="2:3" s="4" customFormat="1"/>
-    <row r="23" spans="2:3">
-      <c r="C23" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="8"/>
-      <c r="C24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="9"/>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="10"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="11"/>
-      <c r="C27" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1677,25 +1499,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED552E3A-902C-4700-B21A-33FAAF526D17}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1718,7 +1541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1727,7 +1550,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1736,46 +1559,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1788,25 +1611,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629DA847-E656-4D9F-9186-EF9F1F645789}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1829,7 +1653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1838,7 +1662,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1847,46 +1671,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>

--- a/REVER_DailyTracker_20200506.xlsx
+++ b/REVER_DailyTracker_20200506.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B674EE-0E16-49A8-A074-675221CF3715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E082A8-78A4-4CD7-BE65-7BAEA9E0E6C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,17 +24,23 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -81,62 +87,27 @@
     <t>Loginpage (Frontend)</t>
   </si>
   <si>
-    <t>Tables are created at RPA Sale database, whereas relationship is penidng, after discussing with Mr Bharathi san, it will be over,
-if any changes or modification can be done.</t>
-  </si>
-  <si>
-    <t>29/04/2020</t>
-  </si>
-  <si>
-    <t>Rever B2C</t>
-  </si>
-  <si>
-    <t>IF full flow with technician tracking integration</t>
-  </si>
-  <si>
-    <t>APK sent.</t>
+    <t xml:space="preserve">1. CRM Table is created for the News Letter type
+2. email id are fetched from the database based on condition of either existisng customer or general customer type and displayed to the textarea,
+3,some onchange events to be implemented to select customer type and based on that email id will be fetched from the databas and placed in the textarea is in progress
+</t>
+  </si>
+  <si>
+    <t>4. Purely  Excel Macro has been developed to create a header.csv file for the japanese language
+5. replaceall macro has been developed To remove emspace characters in japanese text</t>
+  </si>
+  <si>
+    <t>Excel macros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Userform designed and  development etc
+</t>
+  </si>
+  <si>
+    <t>Subnet Integration for Troubleshooting</t>
   </si>
   <si>
     <t>MujiStore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
-  </si>
-  <si>
-    <t>Hayaai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Website design- Business page </t>
-  </si>
-  <si>
-    <t>Website design- Contact page &amp; Business page popup</t>
-  </si>
-  <si>
-    <t>DOTNET APP</t>
-  </si>
-  <si>
-    <t>Video</t>
-  </si>
-  <si>
-    <t>Presentation</t>
-  </si>
-  <si>
-    <t>OBIC Macro</t>
-  </si>
-  <si>
-    <t>By macros created csv file with validations,error msgs,overwriting file</t>
-  </si>
-  <si>
-    <t>Client name is not matched,asked for query with Suma San</t>
-  </si>
-  <si>
-    <t>MujiStore - Authorization for Stores video (Testing)</t>
-  </si>
-  <si>
-    <t>UserClint, Social Media,Contact us</t>
-  </si>
-  <si>
-    <t>Mujistore</t>
   </si>
 </sst>
 </file>
@@ -146,7 +117,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,22 +138,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -261,13 +216,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -303,20 +255,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{91AE6805-01E8-42B9-BB81-A87FD24491E0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -627,25 +574,161 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5FA210-E74C-4956-984B-F79AD1DC1D90}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D97F208-7046-4CD3-9A69-1B907A35455F}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -664,32 +747,20 @@
       <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.95" customHeight="1">
-      <c r="A2" s="15">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -698,46 +769,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -749,26 +820,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A209DB9-CDA9-4C50-85C1-A0ADA7185189}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -791,30 +863,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>16</v>
+      <c r="B2" s="6">
+        <v>43957</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -823,181 +893,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.6">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.6">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>43951</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1010,25 +945,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B046864B-E8B4-4B7E-A91C-A0C80AD7F78D}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1051,7 +987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1060,7 +996,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1069,46 +1005,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1121,25 +1057,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C523E988-B9D6-4503-8511-E851FE3ED345}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1162,28 +1099,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="6">
-        <v>43987</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1192,46 +1117,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1244,25 +1169,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32E0A3B-4CCA-47FE-89FF-779CF7651DEC}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1285,7 +1211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1306,87 +1232,55 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="22">
-        <v>43955</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>5</v>
-      </c>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="22">
-        <v>43956</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1399,25 +1293,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E19C8D-58A2-48BE-81ED-4B005621A3AA}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1440,7 +1335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1449,7 +1344,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1458,46 +1353,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1510,25 +1405,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5621F7FF-E06F-434B-89A6-3866EAA4F4E8}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1551,131 +1447,66 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43951</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="F2" s="3" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="22">
-        <v>43955</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F3" s="14" t="s">
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="22">
-        <v>43955</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="22">
-        <v>43956</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="20" spans="2:3" s="4" customFormat="1"/>
-    <row r="23" spans="2:3">
-      <c r="C23" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="8"/>
-      <c r="C24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="9"/>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="10"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="11"/>
-      <c r="C27" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1686,25 +1517,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED552E3A-902C-4700-B21A-33FAAF526D17}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1727,148 +1559,64 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43951</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="22">
-        <v>43955</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="22">
-        <v>43955</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="22">
-        <v>43956</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="22">
-        <v>43987</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1881,25 +1629,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629DA847-E656-4D9F-9186-EF9F1F645789}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1922,7 +1671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1931,7 +1680,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1940,46 +1689,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>

--- a/REVER_DailyTracker_20200506.xlsx
+++ b/REVER_DailyTracker_20200506.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E082A8-78A4-4CD7-BE65-7BAEA9E0E6C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,9 +18,9 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="27">
   <si>
     <t>Task</t>
   </si>
@@ -109,15 +103,33 @@
   <si>
     <t>MujiStore</t>
   </si>
+  <si>
+    <t>Hayaai</t>
+  </si>
+  <si>
+    <t>1. IF- Functionality of Price selection screen,  2. IF- UI and functionality of checkout screen, 3. IF- Tracking screen implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. IF - Selection of Brands, models, series, warranty type,issue, service center screen UI.                                                2. IF - Displaying and selecting of Brands, Series, Model </t>
+  </si>
+  <si>
+    <t>1. IF- Display and selection of Issues and service centers.                                                                                          2. IF- UI of Price selection screen.                                                          3. Navigation to Dashboard and Locate service center screens from instant fix screen.</t>
+  </si>
+  <si>
+    <t>Instant fix(IF)  home screen UI and displaying Product types</t>
+  </si>
+  <si>
+    <t>1. IF - Tracking screen implementation issue resolved. Instant fix full flow implemented.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -259,6 +271,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -321,7 +341,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -373,7 +393,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -567,14 +587,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5FA210-E74C-4956-984B-F79AD1DC1D90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -582,7 +602,7 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
@@ -593,7 +613,7 @@
     <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -614,7 +634,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="126" customHeight="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -637,7 +657,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="42" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -650,7 +670,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
       <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
@@ -658,45 +678,45 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -709,15 +729,208 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D97F208-7046-4CD3-9A69-1B907A35455F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="53" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43866</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="45">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23">
+        <v>43895</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="24">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="67.5" customHeight="1">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25">
+        <v>43926</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="26">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="48.75" customHeight="1">
+      <c r="A5" s="27">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25">
+        <v>43956</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A6" s="27">
+        <v>5</v>
+      </c>
+      <c r="B6" s="25">
+        <v>43987</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="26">
+        <v>1</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
@@ -728,7 +941,7 @@
     <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -751,16 +964,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43957</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -769,46 +994,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -820,16 +1045,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A209DB9-CDA9-4C50-85C1-A0ADA7185189}">
-  <sheetPr codeName="Sheet2"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
@@ -840,7 +1065,7 @@
     <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -863,28 +1088,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43957</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -893,46 +1106,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -944,16 +1157,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B046864B-E8B4-4B7E-A91C-A0C80AD7F78D}">
-  <sheetPr codeName="Sheet3"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
@@ -964,7 +1177,7 @@
     <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -987,7 +1200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -996,7 +1209,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1005,46 +1218,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1056,16 +1269,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C523E988-B9D6-4503-8511-E851FE3ED345}">
-  <sheetPr codeName="Sheet4"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
@@ -1076,7 +1289,7 @@
     <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1099,16 +1312,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>5</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1117,46 +1342,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1168,16 +1393,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32E0A3B-4CCA-47FE-89FF-779CF7651DEC}">
-  <sheetPr codeName="Sheet5"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
@@ -1188,7 +1413,7 @@
     <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1211,28 +1436,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>5</v>
-      </c>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1241,46 +1454,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1292,16 +1505,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E19C8D-58A2-48BE-81ED-4B005621A3AA}">
-  <sheetPr codeName="Sheet6"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
@@ -1312,7 +1525,7 @@
     <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1335,7 +1548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1344,7 +1557,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1353,46 +1566,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1404,16 +1617,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5621F7FF-E06F-434B-89A6-3866EAA4F4E8}">
-  <sheetPr codeName="Sheet7"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="E14:F16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
@@ -1424,7 +1637,7 @@
     <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1447,7 +1660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1456,7 +1669,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1465,46 +1678,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1516,16 +1729,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED552E3A-902C-4700-B21A-33FAAF526D17}">
-  <sheetPr codeName="Sheet8"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
@@ -1536,7 +1749,7 @@
     <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1559,7 +1772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1568,7 +1781,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1577,158 +1790,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629DA847-E656-4D9F-9186-EF9F1F645789}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>

--- a/REVER_DailyTracker_20200506.xlsx
+++ b/REVER_DailyTracker_20200506.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="28">
   <si>
     <t>Task</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>1. IF - Tracking screen implementation issue resolved. Instant fix full flow implemented.</t>
+  </si>
+  <si>
+    <t>Integration with MVC</t>
   </si>
 </sst>
 </file>
@@ -587,7 +590,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -733,8 +736,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1050,8 +1053,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1089,12 +1092,24 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25">
+        <v>43987</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">

--- a/REVER_DailyTracker_20200506.xlsx
+++ b/REVER_DailyTracker_20200506.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D6BF20-3CC4-4274-8205-DFFED208B400}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -19,22 +25,16 @@
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="29">
   <si>
     <t>Task</t>
   </si>
@@ -81,58 +81,57 @@
     <t>Loginpage (Frontend)</t>
   </si>
   <si>
-    <t xml:space="preserve">1. CRM Table is created for the News Letter type
-2. email id are fetched from the database based on condition of either existisng customer or general customer type and displayed to the textarea,
-3,some onchange events to be implemented to select customer type and based on that email id will be fetched from the databas and placed in the textarea is in progress
-</t>
-  </si>
-  <si>
-    <t>4. Purely  Excel Macro has been developed to create a header.csv file for the japanese language
-5. replaceall macro has been developed To remove emspace characters in japanese text</t>
-  </si>
-  <si>
-    <t>Excel macros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Userform designed and  development etc
-</t>
-  </si>
-  <si>
-    <t>Subnet Integration for Troubleshooting</t>
+    <t>Tables are created at RPA Sale database, whereas relationship is penidng, after discussing with Mr Bharathi san, it will be over,
+if any changes or modification can be done.</t>
+  </si>
+  <si>
+    <t>29/04/2020</t>
+  </si>
+  <si>
+    <t>Rever B2C</t>
+  </si>
+  <si>
+    <t>IF full flow with technician tracking integration</t>
+  </si>
+  <si>
+    <t>APK sent.</t>
   </si>
   <si>
     <t>MujiStore</t>
   </si>
   <si>
+    <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
+  </si>
+  <si>
     <t>Hayaai</t>
   </si>
   <si>
-    <t>1. IF- Functionality of Price selection screen,  2. IF- UI and functionality of checkout screen, 3. IF- Tracking screen implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. IF - Selection of Brands, models, series, warranty type,issue, service center screen UI.                                                2. IF - Displaying and selecting of Brands, Series, Model </t>
-  </si>
-  <si>
-    <t>1. IF- Display and selection of Issues and service centers.                                                                                          2. IF- UI of Price selection screen.                                                          3. Navigation to Dashboard and Locate service center screens from instant fix screen.</t>
-  </si>
-  <si>
-    <t>Instant fix(IF)  home screen UI and displaying Product types</t>
-  </si>
-  <si>
-    <t>1. IF - Tracking screen implementation issue resolved. Instant fix full flow implemented.</t>
-  </si>
-  <si>
-    <t>Integration with MVC</t>
+    <t xml:space="preserve">Website design- Business page </t>
+  </si>
+  <si>
+    <t>Website design- Contact page &amp; Business page popup</t>
+  </si>
+  <si>
+    <t>DOTNET APP</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Muji Multi Language(Resource Changing)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +152,22 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -231,10 +246,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -270,23 +288,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{91AE6805-01E8-42B9-BB81-A87FD24491E0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -344,7 +356,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -396,7 +408,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -590,30 +602,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -637,7 +648,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="126" customHeight="1">
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -659,334 +670,6 @@
       <c r="G2" s="19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="42" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
-      <c r="D4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="53" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43866</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="45">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="23">
-        <v>43895</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="24">
-        <v>1</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="25">
-        <v>43926</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="26">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A5" s="27">
-        <v>4</v>
-      </c>
-      <c r="B5" s="25">
-        <v>43956</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="26">
-        <v>0.9</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A6" s="27">
-        <v>5</v>
-      </c>
-      <c r="B6" s="25">
-        <v>43987</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="26">
-        <v>1</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43957</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -1048,24 +731,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet3"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1095,22 +777,24 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="25">
-        <v>43987</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>21</v>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E2" s="7">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -1172,24 +856,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet4"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1215,22 +898,46 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+    <row r="2" spans="1:7" ht="15.6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
+    <row r="3" spans="1:7" ht="15.6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>43951</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
@@ -1284,24 +991,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet5"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1328,24 +1034,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
@@ -1408,24 +1102,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet6"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1520,24 +1213,178 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet7"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="E14:F16"/>
+      <selection activeCell="A2" sqref="A2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22">
+        <v>43955</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="22">
+        <v>43956</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1632,24 +1479,219 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43951</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22">
+        <v>43955</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="22">
+        <v>43955</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="22">
+        <v>43956</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="22">
+        <v>43957</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="20" spans="2:3" s="4" customFormat="1"/>
+    <row r="23" spans="2:3">
+      <c r="C23" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="8"/>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="9"/>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="10"/>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="11"/>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1745,23 +1787,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
